--- a/raw_data/20200818_saline/20200818_Sensor1_Test_37.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_37.xlsx
@@ -1,3727 +1,4143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EA3685-0F42-4EF7-B59A-A276DA2E167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>32586.832951</v>
       </c>
       <c r="B2" s="1">
-        <v>9.051898</v>
+        <v>9.0518979999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>896.588000</v>
+        <v>896.58799999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.204000</v>
+        <v>-189.20400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>32597.228373</v>
+        <v>32597.228373000002</v>
       </c>
       <c r="G2" s="1">
         <v>9.054786</v>
       </c>
       <c r="H2" s="1">
-        <v>914.609000</v>
+        <v>914.60900000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-162.903000</v>
+        <v>-162.90299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>32608.044860</v>
+        <v>32608.044860000002</v>
       </c>
       <c r="L2" s="1">
-        <v>9.057790</v>
+        <v>9.0577900000000007</v>
       </c>
       <c r="M2" s="1">
-        <v>940.241000</v>
+        <v>940.24099999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.556000</v>
+        <v>-118.556</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>32618.504989</v>
+        <v>32618.504989000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.060696</v>
+        <v>9.0606960000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.071000</v>
+        <v>948.07100000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>32629.075421</v>
+        <v>32629.075421000001</v>
       </c>
       <c r="V2" s="1">
-        <v>9.063632</v>
+        <v>9.0636320000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.753000</v>
+        <v>955.75300000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.678000</v>
+        <v>-88.677999999999997</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>32639.507089</v>
+        <v>32639.507088999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.066530</v>
+        <v>9.0665300000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.799000</v>
+        <v>963.79899999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.103900</v>
+        <v>-77.103899999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>32650.086292</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.069468</v>
+        <v>9.0694680000000005</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.750000</v>
+        <v>968.75</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.868400</v>
+        <v>-74.868399999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>32661.180804</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.072550</v>
+        <v>9.0725499999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.127000</v>
+        <v>976.12699999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.419100</v>
+        <v>-79.4191</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>32671.757959</v>
+        <v>32671.757958999999</v>
       </c>
       <c r="AP2" s="1">
         <v>9.075488</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.196000</v>
+        <v>984.19600000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.875000</v>
+        <v>-90.875</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>32682.525114</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.078479</v>
+        <v>9.0784789999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>993.964000</v>
+        <v>993.96400000000006</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>32693.436498</v>
+        <v>32693.436497999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.081510</v>
+        <v>9.0815099999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.110000</v>
+        <v>1002.11</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.996000</v>
+        <v>-123.996</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>32704.054955</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.084460</v>
+        <v>9.08446</v>
       </c>
       <c r="BF2" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.924000</v>
+        <v>-195.92400000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>32714.678271</v>
+        <v>32714.678271000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.087411</v>
+        <v>9.0874109999999995</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>32726.083453</v>
+        <v>32726.083452999999</v>
       </c>
       <c r="BO2" s="1">
         <v>9.090579</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-498.191000</v>
+        <v>-498.19099999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>32736.437266</v>
+        <v>32736.437266000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.093455</v>
+        <v>9.0934550000000005</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.700000</v>
+        <v>1334.7</v>
       </c>
       <c r="BV2" s="1">
-        <v>-701.930000</v>
+        <v>-701.93</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>32747.268931</v>
+        <v>32747.268930999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.096464</v>
+        <v>9.0964639999999992</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.800000</v>
+        <v>1470.8</v>
       </c>
       <c r="CA2" s="1">
-        <v>-919.013000</v>
+        <v>-919.01300000000003</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>32758.211668</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.099503</v>
+        <v>9.0995030000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.120000</v>
+        <v>1829.12</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1435.250000</v>
+        <v>-1435.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>32587.189575</v>
       </c>
       <c r="B3" s="1">
-        <v>9.051997</v>
+        <v>9.0519970000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>896.666000</v>
+        <v>896.66600000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.063000</v>
+        <v>-189.06299999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>32597.951272</v>
+        <v>32597.951271999998</v>
       </c>
       <c r="G3" s="1">
-        <v>9.054986</v>
+        <v>9.0549859999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>914.528000</v>
+        <v>914.52800000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-162.972000</v>
+        <v>-162.97200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>32608.393081</v>
+        <v>32608.393080999998</v>
       </c>
       <c r="L3" s="1">
-        <v>9.057887</v>
+        <v>9.0578869999999991</v>
       </c>
       <c r="M3" s="1">
-        <v>940.040000</v>
+        <v>940.04</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.465000</v>
+        <v>-118.465</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>32618.889388</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.060803</v>
+        <v>9.0608029999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.053000</v>
+        <v>948.053</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>32629.429374</v>
+        <v>32629.429373999999</v>
       </c>
       <c r="V3" s="1">
-        <v>9.063730</v>
+        <v>9.0637299999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>955.677000</v>
+        <v>955.67700000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.652500</v>
+        <v>-88.652500000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>32640.185617</v>
+        <v>32640.185616999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.066718</v>
+        <v>9.0667179999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.730000</v>
+        <v>963.73</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.243900</v>
+        <v>-77.243899999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>32650.780162</v>
+        <v>32650.780161999999</v>
       </c>
       <c r="AF3" s="1">
         <v>9.069661</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.759000</v>
+        <v>968.75900000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.895800</v>
+        <v>-74.895799999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>32661.608325</v>
+        <v>32661.608325000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.072669</v>
+        <v>9.0726689999999994</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.137000</v>
+        <v>976.13699999999994</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.458500</v>
+        <v>-79.458500000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>32672.201878</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.075612</v>
+        <v>9.0756119999999996</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.197000</v>
+        <v>984.197</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.876600</v>
+        <v>-90.876599999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>32682.894136</v>
+        <v>32682.894135999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.078582</v>
+        <v>9.0785820000000008</v>
       </c>
       <c r="AV3" s="1">
-        <v>993.956000</v>
+        <v>993.95600000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.443000</v>
+        <v>-108.443</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>32693.825465</v>
+        <v>32693.825465000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.081618</v>
+        <v>9.0816180000000006</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.985000</v>
+        <v>-123.985</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>32704.438403</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.084566</v>
+        <v>9.0845660000000006</v>
       </c>
       <c r="BF3" s="1">
-        <v>1040.240000</v>
+        <v>1040.24</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.924000</v>
+        <v>-195.92400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>32715.100365</v>
+        <v>32715.100364999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.087528</v>
+        <v>9.0875280000000007</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.090000</v>
+        <v>-313.08999999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>32726.201860</v>
+        <v>32726.201860000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.090612</v>
+        <v>9.0906120000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-498.185000</v>
+        <v>-498.185</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>32736.582628</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.093495</v>
+        <v>9.0934950000000008</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.720000</v>
+        <v>1334.72</v>
       </c>
       <c r="BV3" s="1">
-        <v>-702.000000</v>
+        <v>-702</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>32747.754979</v>
+        <v>32747.754979000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.096599</v>
+        <v>9.0965989999999994</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.860000</v>
+        <v>1470.86</v>
       </c>
       <c r="CA3" s="1">
-        <v>-918.957000</v>
+        <v>-918.95699999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>32758.803897</v>
+        <v>32758.803897000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.099668</v>
+        <v>9.0996679999999994</v>
       </c>
       <c r="CE3" s="1">
-        <v>1827.690000</v>
+        <v>1827.69</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1435.940000</v>
+        <v>-1435.94</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>32587.872069</v>
+        <v>32587.872069000001</v>
       </c>
       <c r="B4" s="1">
         <v>9.052187</v>
       </c>
       <c r="C4" s="1">
-        <v>896.733000</v>
+        <v>896.73299999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-188.956000</v>
+        <v>-188.95599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>32598.297481</v>
+        <v>32598.297481000001</v>
       </c>
       <c r="G4" s="1">
-        <v>9.055083</v>
+        <v>9.0550829999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>914.669000</v>
+        <v>914.66899999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-162.295000</v>
+        <v>-162.29499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>32608.739258</v>
+        <v>32608.739258000001</v>
       </c>
       <c r="L4" s="1">
-        <v>9.057983</v>
+        <v>9.0579830000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>940.083000</v>
+        <v>940.08299999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.452000</v>
+        <v>-118.452</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>32619.240092</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.060900</v>
+        <v>9.0609000000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>948.079000</v>
+        <v>948.07899999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>32630.079135</v>
       </c>
       <c r="V4" s="1">
-        <v>9.063911</v>
+        <v>9.0639109999999992</v>
       </c>
       <c r="W4" s="1">
-        <v>955.732000</v>
+        <v>955.73199999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.663800</v>
+        <v>-88.663799999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>32640.581425</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.066828</v>
+        <v>9.0668279999999992</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.717000</v>
+        <v>963.71699999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.164700</v>
+        <v>-77.164699999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>32651.155138</v>
+        <v>32651.155137999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.069765</v>
+        <v>9.0697650000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.793000</v>
+        <v>968.79300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.889600</v>
+        <v>-74.889600000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>32661.956515</v>
+        <v>32661.956515000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.072766</v>
+        <v>9.0727659999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.141000</v>
+        <v>976.14099999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.449200</v>
+        <v>-79.449200000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>32672.555525</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.075710</v>
+        <v>9.0757100000000008</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.203000</v>
+        <v>984.20299999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.871300</v>
+        <v>-90.871300000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>32683.258235</v>
+        <v>32683.258235000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.078683</v>
+        <v>9.0786829999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>993.961000</v>
+        <v>993.96100000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>32694.246074</v>
+        <v>32694.246073999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.081735</v>
+        <v>9.0817350000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.120000</v>
+        <v>1002.12</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.996000</v>
+        <v>-123.996</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>32704.859467</v>
+        <v>32704.859466999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.084683</v>
+        <v>9.0846830000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1040.200000</v>
+        <v>1040.2</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.915000</v>
+        <v>-195.91499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>32715.450541</v>
+        <v>32715.450540999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.087625</v>
+        <v>9.0876249999999992</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.220000</v>
+        <v>1106.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.100000</v>
+        <v>-313.10000000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>32726.626430</v>
+        <v>32726.62643</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.090730</v>
+        <v>9.0907300000000006</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-498.208000</v>
+        <v>-498.20800000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>32736.996789</v>
+        <v>32736.996789000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.093610</v>
+        <v>9.09361</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.610000</v>
+        <v>1334.61</v>
       </c>
       <c r="BV4" s="1">
-        <v>-701.888000</v>
+        <v>-701.88800000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>32748.203859</v>
+        <v>32748.203859000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.096723</v>
+        <v>9.0967230000000008</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="CA4" s="1">
-        <v>-918.950000</v>
+        <v>-918.95</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>32759.343508</v>
+        <v>32759.343508000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.099818</v>
+        <v>9.0998180000000009</v>
       </c>
       <c r="CE4" s="1">
-        <v>1828.820000</v>
+        <v>1828.82</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1436.470000</v>
+        <v>-1436.47</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>32588.212326</v>
+        <v>32588.212326000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.052281</v>
+        <v>9.0522810000000007</v>
       </c>
       <c r="C5" s="1">
-        <v>896.764000</v>
+        <v>896.76400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.113000</v>
+        <v>-189.113</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>32598.643191</v>
+        <v>32598.643190999999</v>
       </c>
       <c r="G5" s="1">
-        <v>9.055179</v>
+        <v>9.0551790000000008</v>
       </c>
       <c r="H5" s="1">
-        <v>914.544000</v>
+        <v>914.54399999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-162.457000</v>
+        <v>-162.45699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>32609.392985</v>
+        <v>32609.392984999999</v>
       </c>
       <c r="L5" s="1">
-        <v>9.058165</v>
+        <v>9.0581650000000007</v>
       </c>
       <c r="M5" s="1">
-        <v>940.080000</v>
+        <v>940.08</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.381000</v>
+        <v>-118.381</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>32619.897295</v>
+        <v>32619.897294999999</v>
       </c>
       <c r="Q5" s="1">
         <v>9.061083</v>
       </c>
       <c r="R5" s="1">
-        <v>948.032000</v>
+        <v>948.03200000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.128000</v>
+        <v>-103.128</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>32630.461054</v>
+        <v>32630.461053999999</v>
       </c>
       <c r="V5" s="1">
-        <v>9.064017</v>
+        <v>9.0640169999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>955.711000</v>
+        <v>955.71100000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.678400</v>
+        <v>-88.678399999999996</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>32640.930641</v>
+        <v>32640.930640999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.066925</v>
+        <v>9.0669249999999995</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.705000</v>
+        <v>963.70500000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.195100</v>
+        <v>-77.195099999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>32651.497874</v>
+        <v>32651.497874000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.069861</v>
+        <v>9.0698609999999995</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.719000</v>
+        <v>968.71900000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.885300</v>
+        <v>-74.885300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>32662.305880</v>
+        <v>32662.30588</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.072863</v>
+        <v>9.0728629999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.135000</v>
+        <v>976.13499999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.459900</v>
+        <v>-79.459900000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>32672.940454</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.075817</v>
+        <v>9.0758170000000007</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.205000</v>
+        <v>984.20500000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.874500</v>
+        <v>-90.874499999999998</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>32683.686247</v>
+        <v>32683.686247000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.078802</v>
+        <v>9.0788019999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>993.956000</v>
+        <v>993.95600000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.452000</v>
+        <v>-108.452</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>32694.543709</v>
+        <v>32694.543709000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.081818</v>
+        <v>9.0818180000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.009000</v>
+        <v>-124.009</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>32705.160570</v>
+        <v>32705.16057</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.084767</v>
+        <v>9.0847669999999994</v>
       </c>
       <c r="BF5" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.934000</v>
+        <v>-195.934</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>32715.826012</v>
+        <v>32715.826012000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.087729</v>
+        <v>9.0877289999999995</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.119000</v>
+        <v>-313.11900000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>32727.023197</v>
+        <v>32727.023196999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.090840</v>
+        <v>9.09084</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-498.220000</v>
+        <v>-498.22</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>32737.425295</v>
+        <v>32737.425295000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.093729</v>
+        <v>9.0937289999999997</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.670000</v>
+        <v>1334.67</v>
       </c>
       <c r="BV5" s="1">
-        <v>-701.862000</v>
+        <v>-701.86199999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>32748.623969</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.096840</v>
+        <v>9.0968400000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1470.800000</v>
+        <v>1470.8</v>
       </c>
       <c r="CA5" s="1">
-        <v>-918.970000</v>
+        <v>-918.97</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>32759.883682</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.099968</v>
+        <v>9.0999680000000005</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.060000</v>
+        <v>1828.06</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1435.480000</v>
+        <v>-1435.48</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>32588.556550</v>
+        <v>32588.556550000001</v>
       </c>
       <c r="B6" s="1">
-        <v>9.052377</v>
+        <v>9.0523769999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>896.679000</v>
+        <v>896.67899999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.281000</v>
+        <v>-189.28100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>32599.297414</v>
+        <v>32599.297414000001</v>
       </c>
       <c r="G6" s="1">
-        <v>9.055360</v>
+        <v>9.0553600000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>914.646000</v>
+        <v>914.64599999999996</v>
       </c>
       <c r="I6" s="1">
-        <v>-162.704000</v>
+        <v>-162.70400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>32609.778408</v>
+        <v>32609.778407999998</v>
       </c>
       <c r="L6" s="1">
-        <v>9.058272</v>
+        <v>9.0582720000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>940.335000</v>
+        <v>940.33500000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.357000</v>
+        <v>-118.357</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>32620.283178</v>
+        <v>32620.283178000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.061190</v>
+        <v>9.0611899999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>947.999000</v>
+        <v>947.99900000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.100000</v>
+        <v>-103.1</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>32630.811229</v>
+        <v>32630.811228999999</v>
       </c>
       <c r="V6" s="1">
         <v>9.064114</v>
       </c>
       <c r="W6" s="1">
-        <v>955.802000</v>
+        <v>955.80200000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.665300</v>
+        <v>-88.665300000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>32641.282766</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.067023</v>
+        <v>9.0670230000000007</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.710000</v>
+        <v>963.71</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.160600</v>
+        <v>-77.160600000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>32651.844577</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.069957</v>
+        <v>9.0699570000000005</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.736000</v>
+        <v>968.73599999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.910900</v>
+        <v>-74.910899999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>32662.725349</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.072979</v>
+        <v>9.0729790000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.129000</v>
+        <v>976.12900000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.445500</v>
+        <v>-79.445499999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>32673.404181</v>
+        <v>32673.404181000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.075946</v>
+        <v>9.0759460000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.202000</v>
+        <v>984.202</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.888400</v>
+        <v>-90.888400000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>32683.984838</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.078885</v>
+        <v>9.0788849999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>993.952000</v>
+        <v>993.952</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>32694.902933</v>
+        <v>32694.902933000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.081917</v>
+        <v>9.0819170000000007</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.999000</v>
+        <v>-123.999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>32705.518155</v>
+        <v>32705.518155000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.084866</v>
+        <v>9.0848659999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.945000</v>
+        <v>-195.94499999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>32716.200990</v>
+        <v>32716.200990000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.087834</v>
+        <v>9.0878340000000009</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.103000</v>
+        <v>-313.10300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>32727.446285</v>
+        <v>32727.446285000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.090957</v>
+        <v>9.0909569999999995</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-498.229000</v>
+        <v>-498.22899999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>32737.856853</v>
+        <v>32737.856853000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.093849</v>
+        <v>9.0938490000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.600000</v>
+        <v>1334.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-701.893000</v>
+        <v>-701.89300000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>32749.045568</v>
+        <v>32749.045568000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.096957</v>
+        <v>9.0969569999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1470.800000</v>
+        <v>1470.8</v>
       </c>
       <c r="CA6" s="1">
-        <v>-919.091000</v>
+        <v>-919.09100000000001</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>32760.425814</v>
+        <v>32760.425813999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.100118</v>
+        <v>9.1001180000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1828.320000</v>
+        <v>1828.32</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1437.060000</v>
+        <v>-1437.06</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>32589.265368</v>
       </c>
       <c r="B7" s="1">
-        <v>9.052574</v>
+        <v>9.0525739999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>896.714000</v>
+        <v>896.71400000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.134000</v>
+        <v>-189.13399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>32599.678081</v>
+        <v>32599.678080999998</v>
       </c>
       <c r="G7" s="1">
-        <v>9.055466</v>
+        <v>9.0554659999999991</v>
       </c>
       <c r="H7" s="1">
-        <v>914.605000</v>
+        <v>914.60500000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-162.606000</v>
+        <v>-162.60599999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>32610.121609</v>
+        <v>32610.121609000002</v>
       </c>
       <c r="L7" s="1">
-        <v>9.058367</v>
+        <v>9.0583670000000005</v>
       </c>
       <c r="M7" s="1">
-        <v>940.113000</v>
+        <v>940.11300000000006</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.409000</v>
+        <v>-118.40900000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>32620.631834</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.061287</v>
+        <v>9.0612870000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>947.981000</v>
+        <v>947.98099999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.082000</v>
+        <v>-103.08199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>32631.155452</v>
+        <v>32631.155451999999</v>
       </c>
       <c r="V7" s="1">
-        <v>9.064210</v>
+        <v>9.0642099999999992</v>
       </c>
       <c r="W7" s="1">
-        <v>955.677000</v>
+        <v>955.67700000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.635400</v>
+        <v>-88.635400000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>32641.692958</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.067137</v>
+        <v>9.0671370000000007</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.745000</v>
+        <v>963.745</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.289600</v>
+        <v>-77.289599999999993</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>32652.263200</v>
+        <v>32652.263200000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.070073</v>
+        <v>9.0700730000000007</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.761000</v>
+        <v>968.76099999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.856500</v>
+        <v>-74.856499999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>32663.006548</v>
+        <v>32663.006548000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.073057</v>
+        <v>9.0730570000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.135000</v>
+        <v>976.13499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.446600</v>
+        <v>-79.446600000000004</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>32673.673508</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.076020</v>
+        <v>9.0760199999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.225000</v>
+        <v>984.22500000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.872800</v>
+        <v>-90.872799999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>32684.411434</v>
+        <v>32684.411434000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.079003</v>
+        <v>9.0790030000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>993.943000</v>
+        <v>993.94299999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>32695.258439</v>
+        <v>32695.258439000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.082016</v>
+        <v>9.0820159999999994</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.005000</v>
+        <v>-124.005</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>32705.884201</v>
+        <v>32705.884201000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.084968</v>
+        <v>9.0849679999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1040.240000</v>
+        <v>1040.24</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.917000</v>
+        <v>-195.917</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>32716.972796</v>
+        <v>32716.972795999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.088048</v>
+        <v>9.0880480000000006</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.230000</v>
+        <v>1106.23</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.102000</v>
+        <v>-313.10199999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>32727.841598</v>
+        <v>32727.841597999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.091067</v>
+        <v>9.0910670000000007</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-498.235000</v>
+        <v>-498.23500000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>32738.257584</v>
+        <v>32738.257583999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.093960</v>
+        <v>9.0939599999999992</v>
       </c>
       <c r="BU7" s="1">
-        <v>1334.640000</v>
+        <v>1334.64</v>
       </c>
       <c r="BV7" s="1">
-        <v>-701.838000</v>
+        <v>-701.83799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>32749.472164</v>
+        <v>32749.472163999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.097076</v>
+        <v>9.0970759999999995</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="CA7" s="1">
-        <v>-919.075000</v>
+        <v>-919.07500000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>32761.273938</v>
+        <v>32761.273937999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.100354</v>
+        <v>9.1003539999999994</v>
       </c>
       <c r="CE7" s="1">
-        <v>1827.650000</v>
+        <v>1827.65</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1435.400000</v>
+        <v>-1435.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>32589.601160</v>
+        <v>32589.601159999998</v>
       </c>
       <c r="B8" s="1">
-        <v>9.052667</v>
+        <v>9.0526669999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>896.517000</v>
+        <v>896.51700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.102000</v>
+        <v>-189.102</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>32600.021574</v>
+        <v>32600.021573999999</v>
       </c>
       <c r="G8" s="1">
-        <v>9.055562</v>
+        <v>9.0555620000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>914.575000</v>
+        <v>914.57500000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-162.689000</v>
+        <v>-162.68899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>32610.468348</v>
+        <v>32610.468347999999</v>
       </c>
       <c r="L8" s="1">
-        <v>9.058463</v>
+        <v>9.0584629999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>940.134000</v>
+        <v>940.13400000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.472000</v>
+        <v>-118.47199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>32620.982009</v>
+        <v>32620.982008999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.061384</v>
+        <v>9.0613840000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>948.062000</v>
+        <v>948.06200000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.123000</v>
+        <v>-103.123</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>32631.580530</v>
+        <v>32631.580529999999</v>
       </c>
       <c r="V8" s="1">
-        <v>9.064328</v>
+        <v>9.0643279999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>955.696000</v>
+        <v>955.69600000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.675600</v>
+        <v>-88.675600000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>32641.989107</v>
+        <v>32641.989107000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.067219</v>
+        <v>9.0672189999999997</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.727000</v>
+        <v>963.72699999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.137800</v>
+        <v>-77.137799999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>32652.558815</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.070155</v>
+        <v>9.0701549999999997</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.760000</v>
+        <v>968.76</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.897000</v>
+        <v>-74.897000000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>32663.356722</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.073155</v>
+        <v>9.0731549999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.120000</v>
+        <v>976.12</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.442700</v>
+        <v>-79.442700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>32674.001891</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.076112</v>
+        <v>9.0761120000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.187000</v>
+        <v>984.18700000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.892400</v>
+        <v>-90.892399999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>32684.774997</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.079104</v>
+        <v>9.0791039999999992</v>
       </c>
       <c r="AV8" s="1">
-        <v>993.978000</v>
+        <v>993.97799999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>32695.978104</v>
+        <v>32695.978104000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.082216</v>
+        <v>9.0822160000000007</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.998000</v>
+        <v>-123.998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>32706.653497</v>
+        <v>32706.653496999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.085182</v>
+        <v>9.0851819999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.918000</v>
+        <v>-195.91800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>32717.349227</v>
+        <v>32717.349226999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.088153</v>
+        <v>9.0881530000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.230000</v>
+        <v>1106.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.096000</v>
+        <v>-313.096</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>32728.259259</v>
+        <v>32728.259258999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.091183</v>
+        <v>9.0911829999999991</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-498.270000</v>
+        <v>-498.27</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>32738.694586</v>
+        <v>32738.694586000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.094082</v>
+        <v>9.0940820000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.580000</v>
+        <v>1334.58</v>
       </c>
       <c r="BV8" s="1">
-        <v>-701.742000</v>
+        <v>-701.74199999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>32750.205710</v>
+        <v>32750.205709999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.097279</v>
+        <v>9.0972790000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1470.800000</v>
+        <v>1470.8</v>
       </c>
       <c r="CA8" s="1">
-        <v>-918.946000</v>
+        <v>-918.94600000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>32761.505109</v>
+        <v>32761.505109000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.100418</v>
+        <v>9.1004179999999995</v>
       </c>
       <c r="CE8" s="1">
-        <v>1827.520000</v>
+        <v>1827.52</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1435.160000</v>
+        <v>-1435.16</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>32589.942866</v>
+        <v>32589.942866000001</v>
       </c>
       <c r="B9" s="1">
-        <v>9.052762</v>
+        <v>9.0527619999999995</v>
       </c>
       <c r="C9" s="1">
-        <v>896.623000</v>
+        <v>896.62300000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.143000</v>
+        <v>-189.143</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>32600.365332</v>
+        <v>32600.365332000001</v>
       </c>
       <c r="G9" s="1">
-        <v>9.055657</v>
+        <v>9.0556570000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>914.881000</v>
+        <v>914.88099999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-162.399000</v>
+        <v>-162.399</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>32610.883958</v>
+        <v>32610.883957999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.058579</v>
+        <v>9.0585789999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>940.162000</v>
+        <v>940.16200000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.559000</v>
+        <v>-118.559</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>32621.417497</v>
+        <v>32621.417496999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.061505</v>
+        <v>9.0615050000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>948.075000</v>
+        <v>948.07500000000005</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>32631.852331</v>
+        <v>32631.852330999998</v>
       </c>
       <c r="V9" s="1">
-        <v>9.064403</v>
+        <v>9.0644030000000004</v>
       </c>
       <c r="W9" s="1">
-        <v>955.711000</v>
+        <v>955.71100000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.605100</v>
+        <v>-88.605099999999993</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>32642.336305</v>
+        <v>32642.336305000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.067316</v>
+        <v>9.0673159999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.813000</v>
+        <v>963.81299999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.214900</v>
+        <v>-77.2149</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>32652.898575</v>
+        <v>32652.898574999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.070250</v>
+        <v>9.0702499999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.756000</v>
+        <v>968.75599999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.895500</v>
+        <v>-74.895499999999998</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>32663.707425</v>
+        <v>32663.707425000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.073252</v>
+        <v>9.0732520000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.115000</v>
+        <v>976.11500000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.443800</v>
+        <v>-79.443799999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>32674.727540</v>
+        <v>32674.72754</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.076313</v>
+        <v>9.0763130000000007</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.192000</v>
+        <v>984.19200000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.883700</v>
+        <v>-90.883700000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>32685.503860</v>
+        <v>32685.503860000001</v>
       </c>
       <c r="AU9" s="1">
         <v>9.079307</v>
       </c>
       <c r="AV9" s="1">
-        <v>993.931000</v>
+        <v>993.93100000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.432000</v>
+        <v>-108.432</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>32696.357543</v>
+        <v>32696.357542999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.082322</v>
+        <v>9.0823219999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.110000</v>
+        <v>1002.11</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.013000</v>
+        <v>-124.01300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>32706.962008</v>
+        <v>32706.962007999999</v>
       </c>
       <c r="BE9" s="1">
         <v>9.085267</v>
       </c>
       <c r="BF9" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.953000</v>
+        <v>-195.953</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>32717.725221</v>
+        <v>32717.725221000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.088257</v>
+        <v>9.0882570000000005</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.119000</v>
+        <v>-313.11900000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>32728.959085</v>
+        <v>32728.959084999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.091378</v>
+        <v>9.0913780000000006</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-498.220000</v>
+        <v>-498.22</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>32739.435581</v>
+        <v>32739.435581000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.094288</v>
+        <v>9.0942880000000006</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.650000</v>
+        <v>1334.65</v>
       </c>
       <c r="BV9" s="1">
-        <v>-701.736000</v>
+        <v>-701.73599999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>32750.335166</v>
+        <v>32750.335166000001</v>
       </c>
       <c r="BY9" s="1">
         <v>9.097315</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.830000</v>
+        <v>1470.83</v>
       </c>
       <c r="CA9" s="1">
-        <v>-919.053000</v>
+        <v>-919.053</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>32762.023391</v>
+        <v>32762.023390999999</v>
       </c>
       <c r="CD9" s="1">
         <v>9.100562</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1436.520000</v>
+        <v>-1436.52</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>32590.363474</v>
+        <v>32590.363474000002</v>
       </c>
       <c r="B10" s="1">
-        <v>9.052879</v>
+        <v>9.0528790000000008</v>
       </c>
       <c r="C10" s="1">
-        <v>896.741000</v>
+        <v>896.74099999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.220000</v>
+        <v>-189.22</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>32600.782932</v>
+        <v>32600.782931999998</v>
       </c>
       <c r="G10" s="1">
-        <v>9.055773</v>
+        <v>9.0557730000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>914.404000</v>
+        <v>914.404</v>
       </c>
       <c r="I10" s="1">
-        <v>-162.691000</v>
+        <v>-162.691</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>32611.175606</v>
+        <v>32611.175606000001</v>
       </c>
       <c r="L10" s="1">
-        <v>9.058660</v>
+        <v>9.0586599999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>940.218000</v>
+        <v>940.21799999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.461000</v>
+        <v>-118.461</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>32621.689306</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.061580</v>
+        <v>9.0615799999999993</v>
       </c>
       <c r="R10" s="1">
-        <v>948.097000</v>
+        <v>948.09699999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.139000</v>
+        <v>-103.139</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>32632.194615</v>
       </c>
       <c r="V10" s="1">
-        <v>9.064499</v>
+        <v>9.0644989999999996</v>
       </c>
       <c r="W10" s="1">
-        <v>955.691000</v>
+        <v>955.69100000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.616200</v>
+        <v>-88.616200000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>32642.687965</v>
+        <v>32642.687965000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.067413</v>
+        <v>9.0674130000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.728000</v>
+        <v>963.72799999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.160300</v>
+        <v>-77.160300000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>32653.243792</v>
+        <v>32653.243792000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.070345</v>
+        <v>9.0703449999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.757000</v>
+        <v>968.75699999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.936000</v>
+        <v>-74.936000000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>32664.402785</v>
+        <v>32664.402784999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.073445</v>
+        <v>9.0734449999999995</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.131000</v>
+        <v>976.13099999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.467400</v>
+        <v>-79.467399999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>32675.105458</v>
+        <v>32675.105458000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.076418</v>
+        <v>9.0764180000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.194000</v>
+        <v>984.19399999999996</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.872100</v>
+        <v>-90.872100000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>32685.930645</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.079425</v>
+        <v>9.0794250000000005</v>
       </c>
       <c r="AV10" s="1">
-        <v>993.949000</v>
+        <v>993.94899999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.424000</v>
+        <v>-108.42400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>32696.736981</v>
+        <v>32696.736980999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.082427</v>
+        <v>9.0824269999999991</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.023000</v>
+        <v>-124.023</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>32707.641033</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.085456</v>
+        <v>9.0854560000000006</v>
       </c>
       <c r="BF10" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.950000</v>
+        <v>-195.95</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>32718.433481</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.088454</v>
+        <v>9.0884540000000005</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.220000</v>
+        <v>1106.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.074000</v>
+        <v>-313.07400000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>32729.096475</v>
+        <v>32729.096474999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.091416</v>
+        <v>9.0914160000000006</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-498.249000</v>
+        <v>-498.24900000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>32739.570034</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.094325</v>
+        <v>9.0943249999999995</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.650000</v>
+        <v>1334.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-701.644000</v>
+        <v>-701.64400000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>32750.754814</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.097432</v>
+        <v>9.0974319999999995</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.760000</v>
+        <v>1470.76</v>
       </c>
       <c r="CA10" s="1">
-        <v>-919.081000</v>
+        <v>-919.08100000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>32762.544688</v>
+        <v>32762.544688000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.100707</v>
+        <v>9.1007069999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.580000</v>
+        <v>1827.58</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1435.940000</v>
+        <v>-1435.94</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>32590.645706</v>
+        <v>32590.645705999999</v>
       </c>
       <c r="B11" s="1">
-        <v>9.052957</v>
+        <v>9.0529569999999993</v>
       </c>
       <c r="C11" s="1">
-        <v>896.574000</v>
+        <v>896.57399999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.129000</v>
+        <v>-189.12899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>32601.075572</v>
+        <v>32601.075572000002</v>
       </c>
       <c r="G11" s="1">
-        <v>9.055854</v>
+        <v>9.0558540000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>914.308000</v>
+        <v>914.30799999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-162.688000</v>
+        <v>-162.68799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>32611.519335</v>
+        <v>32611.519335000001</v>
       </c>
       <c r="L11" s="1">
-        <v>9.058755</v>
+        <v>9.0587549999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>940.186000</v>
+        <v>940.18600000000004</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.459000</v>
+        <v>-118.459</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>32622.036504</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.061677</v>
+        <v>9.0616769999999995</v>
       </c>
       <c r="R11" s="1">
-        <v>948.064000</v>
+        <v>948.06399999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>32632.538298</v>
+        <v>32632.538297999999</v>
       </c>
       <c r="V11" s="1">
-        <v>9.064594</v>
+        <v>9.0645939999999996</v>
       </c>
       <c r="W11" s="1">
-        <v>955.754000</v>
+        <v>955.75400000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.667200</v>
+        <v>-88.667199999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>32643.381372</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.067606</v>
+        <v>9.0676059999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.680000</v>
+        <v>963.68</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.124100</v>
+        <v>-77.124099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>32653.929263</v>
+        <v>32653.929263000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.070536</v>
+        <v>9.0705360000000006</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.757000</v>
+        <v>968.75699999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.915300</v>
+        <v>-74.915300000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>32664.751473</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.073542</v>
+        <v>9.0735419999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.142000</v>
+        <v>976.14200000000005</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.429100</v>
+        <v>-79.429100000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>32675.491841</v>
+        <v>32675.491840999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.076526</v>
+        <v>9.0765259999999994</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.194000</v>
+        <v>984.19399999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.873800</v>
+        <v>-90.873800000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>32686.295238</v>
+        <v>32686.295237999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.079526</v>
+        <v>9.0795259999999995</v>
       </c>
       <c r="AV11" s="1">
-        <v>993.964000</v>
+        <v>993.96400000000006</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.434000</v>
+        <v>-108.434</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>32697.399173</v>
+        <v>32697.399173000002</v>
       </c>
       <c r="AZ11" s="1">
         <v>9.082611</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.003000</v>
+        <v>-124.003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>32708.076518</v>
+        <v>32708.076518000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.085577</v>
+        <v>9.0855770000000007</v>
       </c>
       <c r="BF11" s="1">
-        <v>1040.250000</v>
+        <v>1040.25</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.919000</v>
+        <v>-195.91900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>32718.875944</v>
+        <v>32718.875943999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.088577</v>
+        <v>9.0885770000000008</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.230000</v>
+        <v>1106.23</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.108000</v>
+        <v>-313.108</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>32729.507164</v>
+        <v>32729.507163999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.091530</v>
+        <v>9.0915300000000006</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-498.239000</v>
+        <v>-498.23899999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>32740.080913</v>
+        <v>32740.080913000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.094467</v>
+        <v>9.0944669999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1334.580000</v>
+        <v>1334.58</v>
       </c>
       <c r="BV11" s="1">
-        <v>-701.632000</v>
+        <v>-701.63199999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>32751.179888</v>
+        <v>32751.179887999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.097550</v>
+        <v>9.09755</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="CA11" s="1">
-        <v>-919.020000</v>
+        <v>-919.02</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>32763.092271</v>
+        <v>32763.092271000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.100859</v>
+        <v>9.1008589999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.660000</v>
+        <v>1827.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1435.500000</v>
+        <v>-1435.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>32590.985459</v>
       </c>
       <c r="B12" s="1">
-        <v>9.053052</v>
+        <v>9.0530519999999992</v>
       </c>
       <c r="C12" s="1">
-        <v>896.626000</v>
+        <v>896.62599999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.242000</v>
+        <v>-189.24199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>32601.420319</v>
+        <v>32601.420319000001</v>
       </c>
       <c r="G12" s="1">
-        <v>9.055950</v>
+        <v>9.0559499999999993</v>
       </c>
       <c r="H12" s="1">
-        <v>914.323000</v>
+        <v>914.32299999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-162.177000</v>
+        <v>-162.17699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>32611.867030</v>
+        <v>32611.867030000001</v>
       </c>
       <c r="L12" s="1">
-        <v>9.058852</v>
+        <v>9.0588519999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>939.977000</v>
+        <v>939.97699999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.433000</v>
+        <v>-118.43300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>32622.382252</v>
+        <v>32622.382251999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.061773</v>
+        <v>9.0617730000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>948.015000</v>
+        <v>948.01499999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>32633.226282</v>
       </c>
       <c r="V12" s="1">
-        <v>9.064785</v>
+        <v>9.0647850000000005</v>
       </c>
       <c r="W12" s="1">
-        <v>955.655000</v>
+        <v>955.65499999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.708200</v>
+        <v>-88.708200000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>32643.732011</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.067703</v>
+        <v>9.0677029999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.801000</v>
+        <v>963.80100000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.216600</v>
+        <v>-77.2166</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>32654.273158</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.070631</v>
+        <v>9.0706310000000006</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.752000</v>
+        <v>968.75199999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.864800</v>
+        <v>-74.864800000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>32665.100192</v>
+        <v>32665.100192000002</v>
       </c>
       <c r="AK12" s="1">
         <v>9.073639</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.131000</v>
+        <v>976.13099999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.466100</v>
+        <v>-79.466099999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>32676.157514</v>
+        <v>32676.157513999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.076710</v>
+        <v>9.0767100000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.179000</v>
+        <v>984.17899999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.884800</v>
+        <v>-90.884799999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>32686.966818</v>
+        <v>32686.966818000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.079713</v>
+        <v>9.0797129999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>993.948000</v>
+        <v>993.94799999999998</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.423000</v>
+        <v>-108.423</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>32697.819253</v>
+        <v>32697.819253000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.082728</v>
+        <v>9.0827279999999995</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.009000</v>
+        <v>-124.009</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>32708.439130</v>
+        <v>32708.439129999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.085678</v>
+        <v>9.0856779999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1040.210000</v>
+        <v>1040.21</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.939000</v>
+        <v>-195.93899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>32719.281640</v>
+        <v>32719.281640000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.088689</v>
+        <v>9.0886890000000005</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.105000</v>
+        <v>-313.10500000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>32729.903999</v>
+        <v>32729.903998999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.091640</v>
+        <v>9.0916399999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-498.204000</v>
+        <v>-498.20400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>32740.408241</v>
+        <v>32740.408241000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.094558</v>
+        <v>9.0945579999999993</v>
       </c>
       <c r="BU12" s="1">
-        <v>1334.670000</v>
+        <v>1334.67</v>
       </c>
       <c r="BV12" s="1">
-        <v>-701.593000</v>
+        <v>-701.59299999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>32751.605421</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.097668</v>
+        <v>9.0976680000000005</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1470.810000</v>
+        <v>1470.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-918.989000</v>
+        <v>-918.98900000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>32763.623485</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.101007</v>
+        <v>9.1010069999999992</v>
       </c>
       <c r="CE12" s="1">
-        <v>1827.980000</v>
+        <v>1827.98</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1436.600000</v>
+        <v>-1436.6</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>32591.327698</v>
+        <v>32591.327698000001</v>
       </c>
       <c r="B13" s="1">
-        <v>9.053147</v>
+        <v>9.0531469999999992</v>
       </c>
       <c r="C13" s="1">
-        <v>896.622000</v>
+        <v>896.62199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.047000</v>
+        <v>-189.047</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>32601.767987</v>
+        <v>32601.767986999999</v>
       </c>
       <c r="G13" s="1">
-        <v>9.056047</v>
+        <v>9.0560469999999995</v>
       </c>
       <c r="H13" s="1">
-        <v>914.716000</v>
+        <v>914.71600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-162.725000</v>
+        <v>-162.72499999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>32612.562437</v>
+        <v>32612.562437000001</v>
       </c>
       <c r="L13" s="1">
-        <v>9.059045</v>
+        <v>9.0590449999999993</v>
       </c>
       <c r="M13" s="1">
-        <v>940.082000</v>
+        <v>940.08199999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.521000</v>
+        <v>-118.521</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>32623.079591</v>
+        <v>32623.079591000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.061967</v>
+        <v>9.0619669999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>948.024000</v>
+        <v>948.024</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>32633.566532</v>
+        <v>32633.566532000001</v>
       </c>
       <c r="V13" s="1">
-        <v>9.064880</v>
+        <v>9.0648800000000005</v>
       </c>
       <c r="W13" s="1">
-        <v>955.666000</v>
+        <v>955.66600000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.641000</v>
+        <v>-88.641000000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>32644.081227</v>
+        <v>32644.081226999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.067800</v>
+        <v>9.0678000000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.724000</v>
+        <v>963.72400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.220600</v>
+        <v>-77.220600000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>32654.617214</v>
+        <v>32654.617214000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.070727</v>
+        <v>9.0707269999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.737000</v>
+        <v>968.73699999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.887400</v>
+        <v>-74.8874</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>32665.749422</v>
+        <v>32665.749422000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.073819</v>
+        <v>9.0738190000000003</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.115000</v>
+        <v>976.11500000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.448700</v>
+        <v>-79.448700000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>32676.572128</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.076826</v>
+        <v>9.0768260000000005</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.198000</v>
+        <v>984.19799999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.889000</v>
+        <v>-90.888999999999996</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>32687.419651</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.079839</v>
+        <v>9.0798389999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>993.955000</v>
+        <v>993.95500000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.435000</v>
+        <v>-108.435</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>32698.194723</v>
+        <v>32698.194723000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.082832</v>
+        <v>9.0828319999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.999000</v>
+        <v>-123.999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>32708.797743</v>
+        <v>32708.797742999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.085777</v>
+        <v>9.0857770000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.925000</v>
+        <v>-195.92500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>32719.657113</v>
+        <v>32719.657113000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>9.088794</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>32730.327546</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.091758</v>
+        <v>9.0917580000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-498.250000</v>
+        <v>-498.25</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>32741.236060</v>
+        <v>32741.236059999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.094788</v>
+        <v>9.0947879999999994</v>
       </c>
       <c r="BU13" s="1">
-        <v>1334.730000</v>
+        <v>1334.73</v>
       </c>
       <c r="BV13" s="1">
-        <v>-701.548000</v>
+        <v>-701.548</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>32752.044910</v>
+        <v>32752.044910000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.097790</v>
+        <v>9.0977899999999998</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.680000</v>
+        <v>1470.68</v>
       </c>
       <c r="CA13" s="1">
-        <v>-919.005000</v>
+        <v>-919.005</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>32764.140824</v>
+        <v>32764.140823999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.101150</v>
+        <v>9.1011500000000005</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.110000</v>
+        <v>1829.11</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1436.510000</v>
+        <v>-1436.51</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>32592.005754</v>
+        <v>32592.005754000002</v>
       </c>
       <c r="B14" s="1">
-        <v>9.053335</v>
+        <v>9.0533350000000006</v>
       </c>
       <c r="C14" s="1">
-        <v>896.714000</v>
+        <v>896.71400000000006</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.093000</v>
+        <v>-189.09299999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32602.461179</v>
+        <v>32602.461179000002</v>
       </c>
       <c r="G14" s="1">
-        <v>9.056239</v>
+        <v>9.0562389999999997</v>
       </c>
       <c r="H14" s="1">
-        <v>914.511000</v>
+        <v>914.51099999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-162.639000</v>
+        <v>-162.63900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>32612.909157</v>
+        <v>32612.909156999998</v>
       </c>
       <c r="L14" s="1">
-        <v>9.059141</v>
+        <v>9.0591410000000003</v>
       </c>
       <c r="M14" s="1">
-        <v>940.340000</v>
+        <v>940.34</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.467000</v>
+        <v>-118.467</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>32623.428774</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.062064</v>
+        <v>9.0620639999999995</v>
       </c>
       <c r="R14" s="1">
-        <v>948.045000</v>
+        <v>948.04499999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>32633.914233</v>
       </c>
       <c r="V14" s="1">
-        <v>9.064976</v>
+        <v>9.0649759999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>955.626000</v>
+        <v>955.62599999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.619200</v>
+        <v>-88.619200000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>32644.735945</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.067982</v>
+        <v>9.0679820000000007</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.692000</v>
+        <v>963.69200000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.212000</v>
+        <v>-77.212000000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>32655.288799</v>
+        <v>32655.288799000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.070914</v>
+        <v>9.0709140000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.772000</v>
+        <v>968.77200000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.865200</v>
+        <v>-74.865200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>32666.146260</v>
+        <v>32666.146260000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.073930</v>
+        <v>9.0739300000000007</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.128000</v>
+        <v>976.12800000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.462100</v>
+        <v>-79.462100000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>32676.956559</v>
+        <v>32676.956558999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.076932</v>
+        <v>9.0769319999999993</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.188000</v>
+        <v>984.18799999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.877200</v>
+        <v>-90.877200000000002</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>32687.781750</v>
+        <v>32687.781749999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.079939</v>
+        <v>9.0799389999999995</v>
       </c>
       <c r="AV14" s="1">
-        <v>993.957000</v>
+        <v>993.95699999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>32698.575156</v>
+        <v>32698.575155999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.082938</v>
+        <v>9.0829380000000004</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.110000</v>
+        <v>1002.11</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.021000</v>
+        <v>-124.021</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>32709.226778</v>
@@ -3730,876 +4146,876 @@
         <v>9.085896</v>
       </c>
       <c r="BF14" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.915000</v>
+        <v>-195.91499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>32720.084663</v>
+        <v>32720.084663000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.088912</v>
+        <v>9.0889120000000005</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.230000</v>
+        <v>1106.23</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.101000</v>
+        <v>-313.101</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>32730.722362</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.091867</v>
+        <v>9.0918670000000006</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-498.217000</v>
+        <v>-498.21699999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>32741.671577</v>
+        <v>32741.671577000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.094909</v>
+        <v>9.0949089999999995</v>
       </c>
       <c r="BU14" s="1">
-        <v>1334.750000</v>
+        <v>1334.75</v>
       </c>
       <c r="BV14" s="1">
-        <v>-701.527000</v>
+        <v>-701.52700000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>32752.468005</v>
+        <v>32752.468004999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.097908</v>
+        <v>9.0979080000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-919.092000</v>
+        <v>-919.09199999999998</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>32764.661117</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.101295</v>
+        <v>9.1012950000000004</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.720000</v>
+        <v>1828.72</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1435.190000</v>
+        <v>-1435.19</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>32592.352432</v>
       </c>
       <c r="B15" s="1">
-        <v>9.053431</v>
+        <v>9.0534309999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>896.682000</v>
+        <v>896.68200000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.054000</v>
+        <v>-189.054</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>32602.803665</v>
+        <v>32602.803664999999</v>
       </c>
       <c r="G15" s="1">
-        <v>9.056334</v>
+        <v>9.0563339999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>914.507000</v>
+        <v>914.50699999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-162.849000</v>
+        <v>-162.84899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>32613.253379</v>
+        <v>32613.253379000002</v>
       </c>
       <c r="L15" s="1">
-        <v>9.059237</v>
+        <v>9.0592369999999995</v>
       </c>
       <c r="M15" s="1">
-        <v>940.212000</v>
+        <v>940.21199999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.367000</v>
+        <v>-118.367</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>32624.081546</v>
+        <v>32624.081546000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.062245</v>
+        <v>9.0622450000000008</v>
       </c>
       <c r="R15" s="1">
-        <v>948.100000</v>
+        <v>948.1</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>32634.565943</v>
+        <v>32634.565943000001</v>
       </c>
       <c r="V15" s="1">
-        <v>9.065157</v>
+        <v>9.0651569999999992</v>
       </c>
       <c r="W15" s="1">
-        <v>955.720000</v>
+        <v>955.72</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.652300</v>
+        <v>-88.652299999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>32645.117338</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.068088</v>
+        <v>9.0680879999999995</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.784000</v>
+        <v>963.78399999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.197000</v>
+        <v>-77.197000000000003</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>32655.648893</v>
+        <v>32655.648893000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.071014</v>
+        <v>9.0710139999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.736000</v>
+        <v>968.73599999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.908900</v>
+        <v>-74.908900000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>32666.491439</v>
+        <v>32666.491439000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.074025</v>
+        <v>9.0740250000000007</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.130000</v>
+        <v>976.13</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.445900</v>
+        <v>-79.445899999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>32677.316623</v>
+        <v>32677.316622999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.077032</v>
+        <v>9.0770320000000009</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.195000</v>
+        <v>984.19500000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.894500</v>
+        <v>-90.894499999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>32688.145312</v>
+        <v>32688.145312000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.080040</v>
+        <v>9.0800400000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>993.961000</v>
+        <v>993.96100000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>32698.992292</v>
+        <v>32698.992291999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.083053</v>
+        <v>9.0830529999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.120000</v>
+        <v>1002.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.021000</v>
+        <v>-124.021</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>32709.520405</v>
+        <v>32709.520404999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.085978</v>
+        <v>9.0859780000000008</v>
       </c>
       <c r="BF15" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.923000</v>
+        <v>-195.923</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>32720.429415</v>
+        <v>32720.429414999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.089008</v>
+        <v>9.0890079999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.090000</v>
+        <v>-313.08999999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>32731.138532</v>
+        <v>32731.138532000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.091983</v>
+        <v>9.0919830000000008</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-498.230000</v>
+        <v>-498.23</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>32742.100122</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.095028</v>
+        <v>9.0950279999999992</v>
       </c>
       <c r="BU15" s="1">
-        <v>1334.800000</v>
+        <v>1334.8</v>
       </c>
       <c r="BV15" s="1">
-        <v>-701.481000</v>
+        <v>-701.48099999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>32752.891567</v>
+        <v>32752.891566999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.098025</v>
+        <v>9.0980249999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1470.810000</v>
+        <v>1470.81</v>
       </c>
       <c r="CA15" s="1">
-        <v>-919.061000</v>
+        <v>-919.06100000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>32765.175963</v>
+        <v>32765.175963000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.101438</v>
+        <v>9.1014379999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1827.710000</v>
+        <v>1827.71</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1435.640000</v>
+        <v>-1435.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>32592.694672</v>
+        <v>32592.694672000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.053526</v>
+        <v>9.0535259999999997</v>
       </c>
       <c r="C16" s="1">
-        <v>896.781000</v>
+        <v>896.78099999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.153000</v>
+        <v>-189.15299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>32603.148850</v>
+        <v>32603.148850000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.056430</v>
+        <v>9.0564300000000006</v>
       </c>
       <c r="H16" s="1">
-        <v>914.717000</v>
+        <v>914.71699999999998</v>
       </c>
       <c r="I16" s="1">
-        <v>-162.716000</v>
+        <v>-162.71600000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>32613.908067</v>
       </c>
       <c r="L16" s="1">
-        <v>9.059419</v>
+        <v>9.0594190000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.151000</v>
+        <v>940.15099999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.357000</v>
+        <v>-118.357</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>32624.475335</v>
+        <v>32624.475334999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.062354</v>
+        <v>9.0623539999999991</v>
       </c>
       <c r="R16" s="1">
-        <v>948.058000</v>
+        <v>948.05799999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.152000</v>
+        <v>-103.152</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>32634.940920</v>
+        <v>32634.940920000001</v>
       </c>
       <c r="V16" s="1">
-        <v>9.065261</v>
+        <v>9.0652609999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>955.679000</v>
+        <v>955.67899999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.619000</v>
+        <v>-88.619</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>32645.474989</v>
+        <v>32645.474988999998</v>
       </c>
       <c r="AA16" s="1">
         <v>9.068187</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.675000</v>
+        <v>963.67499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.178100</v>
+        <v>-77.178100000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>32656.179648</v>
+        <v>32656.179648000001</v>
       </c>
       <c r="AF16" s="1">
         <v>9.071161</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.784000</v>
+        <v>968.78399999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.906200</v>
+        <v>-74.906199999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>32666.842641</v>
+        <v>32666.842640999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.074123</v>
+        <v>9.0741230000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.114000</v>
+        <v>976.11400000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.458600</v>
+        <v>-79.458600000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>32677.727839</v>
+        <v>32677.727838999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.077147</v>
+        <v>9.0771470000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.184000</v>
+        <v>984.18399999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.858400</v>
+        <v>-90.858400000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>32688.570160</v>
+        <v>32688.570159999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.080158</v>
+        <v>9.0801580000000008</v>
       </c>
       <c r="AV16" s="1">
-        <v>993.941000</v>
+        <v>993.94100000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.452000</v>
+        <v>-108.452</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>32699.293890</v>
+        <v>32699.293890000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.083137</v>
+        <v>9.0831370000000007</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.982000</v>
+        <v>-123.982</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>32709.881971</v>
+        <v>32709.881970999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.086078</v>
+        <v>9.0860780000000005</v>
       </c>
       <c r="BF16" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.934000</v>
+        <v>-195.934</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>32720.805350</v>
+        <v>32720.805349999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.089113</v>
+        <v>9.0891129999999993</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.095000</v>
+        <v>-313.09500000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>32731.536327</v>
+        <v>32731.536327000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.092093</v>
+        <v>9.0920930000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-498.242000</v>
+        <v>-498.24200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>32742.512773</v>
+        <v>32742.512772999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.095142</v>
+        <v>9.0951419999999992</v>
       </c>
       <c r="BU16" s="1">
-        <v>1334.860000</v>
+        <v>1334.86</v>
       </c>
       <c r="BV16" s="1">
-        <v>-701.489000</v>
+        <v>-701.48900000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>32753.337948</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.098149</v>
+        <v>9.0981489999999994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1470.760000</v>
+        <v>1470.76</v>
       </c>
       <c r="CA16" s="1">
-        <v>-919.051000</v>
+        <v>-919.05100000000004</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>32765.694813</v>
+        <v>32765.694812999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.101582</v>
+        <v>9.1015820000000005</v>
       </c>
       <c r="CE16" s="1">
-        <v>1828.260000</v>
+        <v>1828.26</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1436.740000</v>
+        <v>-1436.74</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>32593.345920</v>
+        <v>32593.34592</v>
       </c>
       <c r="B17" s="1">
-        <v>9.053707</v>
+        <v>9.0537069999999993</v>
       </c>
       <c r="C17" s="1">
-        <v>896.594000</v>
+        <v>896.59400000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-188.954000</v>
+        <v>-188.95400000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>32603.801088</v>
       </c>
       <c r="G17" s="1">
-        <v>9.056611</v>
+        <v>9.0566110000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>914.490000</v>
+        <v>914.49</v>
       </c>
       <c r="I17" s="1">
-        <v>-162.884000</v>
+        <v>-162.88399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>32614.289525</v>
       </c>
       <c r="L17" s="1">
-        <v>9.059525</v>
+        <v>9.0595250000000007</v>
       </c>
       <c r="M17" s="1">
-        <v>940.343000</v>
+        <v>940.34299999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.302000</v>
+        <v>-118.30200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>32624.826006</v>
+        <v>32624.826005999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.062452</v>
+        <v>9.0624520000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>948.031000</v>
+        <v>948.03099999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>32635.288153</v>
+        <v>32635.288153000001</v>
       </c>
       <c r="V17" s="1">
-        <v>9.065358</v>
+        <v>9.0653579999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>955.693000</v>
+        <v>955.69299999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.651600</v>
+        <v>-88.651600000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>32645.825663</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.068285</v>
+        <v>9.0682849999999995</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.673000</v>
+        <v>963.673</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.136800</v>
+        <v>-77.136799999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>32656.335355</v>
+        <v>32656.335354999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.071204</v>
+        <v>9.0712039999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.747000</v>
+        <v>968.74699999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.873600</v>
+        <v>-74.873599999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>32667.271156</v>
+        <v>32667.271155999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.074242</v>
+        <v>9.0742419999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.134000</v>
+        <v>976.13400000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.454700</v>
+        <v>-79.454700000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>32678.036318</v>
+        <v>32678.036317999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.077232</v>
+        <v>9.0772320000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.209000</v>
+        <v>984.20899999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.890900</v>
+        <v>-90.890900000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>32688.879360</v>
+        <v>32688.879359999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.080244</v>
+        <v>9.0802440000000004</v>
       </c>
       <c r="AV17" s="1">
-        <v>993.958000</v>
+        <v>993.95799999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.436000</v>
+        <v>-108.43600000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>32699.652466</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.083237</v>
+        <v>9.0832370000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.010000</v>
+        <v>-124.01</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>32710.241588</v>
+        <v>32710.241588000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.086178</v>
+        <v>9.0861780000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.917000</v>
+        <v>-195.917</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>32721.180326</v>
+        <v>32721.180326000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.089217</v>
+        <v>9.0892169999999997</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.170000</v>
+        <v>1106.17</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.076000</v>
+        <v>-313.07600000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>32731.957399</v>
+        <v>32731.957398999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.092210</v>
+        <v>9.0922099999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-498.246000</v>
+        <v>-498.24599999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>32742.939849</v>
+        <v>32742.939848999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.095261</v>
+        <v>9.0952610000000007</v>
       </c>
       <c r="BU17" s="1">
-        <v>1334.890000</v>
+        <v>1334.89</v>
       </c>
       <c r="BV17" s="1">
-        <v>-701.454000</v>
+        <v>-701.45399999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>32753.771450</v>
+        <v>32753.77145</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.098270</v>
+        <v>9.0982699999999994</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.770000</v>
+        <v>1470.77</v>
       </c>
       <c r="CA17" s="1">
-        <v>-918.992000</v>
+        <v>-918.99199999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>32766.212106</v>
+        <v>32766.212105999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.101726</v>
+        <v>9.1017259999999993</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.810000</v>
+        <v>1827.81</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1436.620000</v>
+        <v>-1436.62</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>32593.720399</v>
+        <v>32593.720399000002</v>
       </c>
       <c r="B18" s="1">
-        <v>9.053811</v>
+        <v>9.0538109999999996</v>
       </c>
       <c r="C18" s="1">
-        <v>896.527000</v>
+        <v>896.52700000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.122000</v>
+        <v>-189.12200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>32604.184534</v>
@@ -4608,43 +5024,43 @@
         <v>9.056718</v>
       </c>
       <c r="H18" s="1">
-        <v>914.882000</v>
+        <v>914.88199999999995</v>
       </c>
       <c r="I18" s="1">
-        <v>-162.595000</v>
+        <v>-162.595</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>32614.632723</v>
+        <v>32614.632722999999</v>
       </c>
       <c r="L18" s="1">
-        <v>9.059620</v>
+        <v>9.0596200000000007</v>
       </c>
       <c r="M18" s="1">
-        <v>940.257000</v>
+        <v>940.25699999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.291000</v>
+        <v>-118.291</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>32625.171716</v>
+        <v>32625.171716000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.062548</v>
+        <v>9.0625479999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>948.031000</v>
+        <v>948.03099999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>32635.638294</v>
@@ -4653,13 +5069,13 @@
         <v>9.065455</v>
       </c>
       <c r="W18" s="1">
-        <v>955.714000</v>
+        <v>955.71400000000006</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.627300</v>
+        <v>-88.627300000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>32646.251194</v>
@@ -4668,1253 +5084,1253 @@
         <v>9.068403</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.710000</v>
+        <v>963.71</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.160600</v>
+        <v>-77.160600000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>32657.022958</v>
+        <v>32657.022958000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.071395</v>
+        <v>9.0713950000000008</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.778000</v>
+        <v>968.77800000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.854400</v>
+        <v>-74.854399999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>32667.549404</v>
+        <v>32667.549404000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.074319</v>
+        <v>9.0743189999999991</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.133000</v>
+        <v>976.13300000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.433200</v>
+        <v>-79.433199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>32678.397407</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.077333</v>
+        <v>9.0773329999999994</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.210000</v>
+        <v>984.21</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.888400</v>
+        <v>-90.888400000000004</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>32689.242431</v>
+        <v>32689.242430999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.080345</v>
+        <v>9.0803449999999994</v>
       </c>
       <c r="AV18" s="1">
-        <v>993.930000</v>
+        <v>993.93</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.436000</v>
+        <v>-108.43600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>32700.009127</v>
+        <v>32700.009127000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.083336</v>
+        <v>9.0833359999999992</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.100000</v>
+        <v>1002.1</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.003000</v>
+        <v>-124.003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>32710.965220</v>
+        <v>32710.965219999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.086379</v>
+        <v>9.0863790000000009</v>
       </c>
       <c r="BF18" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.946000</v>
+        <v>-195.946</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>32721.930773</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.089425</v>
+        <v>9.0894250000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.230000</v>
+        <v>1106.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.105000</v>
+        <v>-313.10500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>32732.356182</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.092321</v>
+        <v>9.0923210000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.720000</v>
+        <v>1213.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-498.206000</v>
+        <v>-498.20600000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>32743.371337</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.095381</v>
+        <v>9.0953809999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1334.960000</v>
+        <v>1334.96</v>
       </c>
       <c r="BV18" s="1">
-        <v>-701.463000</v>
+        <v>-701.46299999999997</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>32754.191591</v>
+        <v>32754.191590999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.098387</v>
+        <v>9.0983870000000007</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1470.750000</v>
+        <v>1470.75</v>
       </c>
       <c r="CA18" s="1">
-        <v>-919.093000</v>
+        <v>-919.09299999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>32767.071673</v>
+        <v>32767.071672999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.101964</v>
+        <v>9.1019640000000006</v>
       </c>
       <c r="CE18" s="1">
-        <v>1827.790000</v>
+        <v>1827.79</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1435.970000</v>
+        <v>-1435.97</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>32594.064655</v>
+        <v>32594.064654999998</v>
       </c>
       <c r="B19" s="1">
-        <v>9.053907</v>
+        <v>9.0539070000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>896.559000</v>
+        <v>896.55899999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-188.923000</v>
+        <v>-188.923</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>32604.533185</v>
       </c>
       <c r="G19" s="1">
-        <v>9.056815</v>
+        <v>9.0568150000000003</v>
       </c>
       <c r="H19" s="1">
-        <v>914.517000</v>
+        <v>914.51700000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-162.694000</v>
+        <v>-162.69399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>32614.983393</v>
+        <v>32614.983392999999</v>
       </c>
       <c r="L19" s="1">
-        <v>9.059718</v>
+        <v>9.0597180000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.176000</v>
+        <v>940.17600000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.442000</v>
+        <v>-118.44199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>32625.595335</v>
+        <v>32625.595335000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.062665</v>
+        <v>9.0626650000000009</v>
       </c>
       <c r="R19" s="1">
-        <v>948.052000</v>
+        <v>948.05200000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>32636.059894</v>
+        <v>32636.059894000002</v>
       </c>
       <c r="V19" s="1">
-        <v>9.065572</v>
+        <v>9.0655719999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>955.775000</v>
+        <v>955.77499999999998</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.640900</v>
+        <v>-88.640900000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>32646.531928</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.068481</v>
+        <v>9.0684810000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.724000</v>
+        <v>963.72400000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.164500</v>
+        <v>-77.164500000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>32657.367034</v>
+        <v>32657.367033999999</v>
       </c>
       <c r="AF19" s="1">
         <v>9.071491</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.742000</v>
+        <v>968.74199999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.842100</v>
+        <v>-74.842100000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>32667.897628</v>
+        <v>32667.897627999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.074416</v>
+        <v>9.0744159999999994</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.147000</v>
+        <v>976.14700000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.434800</v>
+        <v>-79.434799999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>32678.757007</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.077433</v>
+        <v>9.0774329999999992</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.184000</v>
+        <v>984.18399999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.869800</v>
+        <v>-90.869799999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>32689.663535</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.080462</v>
+        <v>9.0804620000000007</v>
       </c>
       <c r="AV19" s="1">
-        <v>993.959000</v>
+        <v>993.95899999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>32700.727793</v>
+        <v>32700.727792999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.083535</v>
+        <v>9.0835349999999995</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.007000</v>
+        <v>-124.00700000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>32711.325812</v>
+        <v>32711.325811999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.086479</v>
+        <v>9.0864790000000006</v>
       </c>
       <c r="BF19" s="1">
-        <v>1040.210000</v>
+        <v>1040.21</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.927000</v>
+        <v>-195.92699999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>32722.303268</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.089529</v>
+        <v>9.0895290000000006</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.078000</v>
+        <v>-313.07799999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>32732.773351</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.092437</v>
+        <v>9.0924370000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.680000</v>
+        <v>1213.68</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-498.244000</v>
+        <v>-498.24400000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>32744.098471</v>
+        <v>32744.098471000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.095583</v>
+        <v>9.0955829999999995</v>
       </c>
       <c r="BU19" s="1">
-        <v>1334.930000</v>
+        <v>1334.93</v>
       </c>
       <c r="BV19" s="1">
-        <v>-701.425000</v>
+        <v>-701.42499999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>32754.914234</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.098587</v>
+        <v>9.0985870000000002</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1470.970000</v>
+        <v>1470.97</v>
       </c>
       <c r="CA19" s="1">
-        <v>-918.949000</v>
+        <v>-918.94899999999996</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>32767.295368</v>
+        <v>32767.295367999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.102026</v>
+        <v>9.1020260000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.090000</v>
+        <v>1828.09</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1437.080000</v>
+        <v>-1437.08</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>32594.405405</v>
+        <v>32594.405405000001</v>
       </c>
       <c r="B20" s="1">
-        <v>9.054002</v>
+        <v>9.0540020000000005</v>
       </c>
       <c r="C20" s="1">
-        <v>896.633000</v>
+        <v>896.63300000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.082000</v>
+        <v>-189.08199999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>32604.880383</v>
       </c>
       <c r="G20" s="1">
-        <v>9.056911</v>
+        <v>9.0569109999999995</v>
       </c>
       <c r="H20" s="1">
-        <v>914.592000</v>
+        <v>914.59199999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-162.610000</v>
+        <v>-162.61000000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>32615.403505</v>
+        <v>32615.403504999998</v>
       </c>
       <c r="L20" s="1">
-        <v>9.059834</v>
+        <v>9.0598340000000004</v>
       </c>
       <c r="M20" s="1">
-        <v>940.168000</v>
+        <v>940.16800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.386000</v>
+        <v>-118.386</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>32625.867140</v>
+        <v>32625.867139999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.062741</v>
+        <v>9.0627410000000008</v>
       </c>
       <c r="R20" s="1">
-        <v>948.065000</v>
+        <v>948.06500000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>32636.340166</v>
+        <v>32636.340166000002</v>
       </c>
       <c r="V20" s="1">
-        <v>9.065650</v>
+        <v>9.0656499999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>955.654000</v>
+        <v>955.654</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.564100</v>
+        <v>-88.564099999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>32646.878633</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.068577</v>
+        <v>9.0685769999999994</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.801000</v>
+        <v>963.80100000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.216800</v>
+        <v>-77.216800000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>32657.711291</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.071586</v>
+        <v>9.0715859999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.731000</v>
+        <v>968.73099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.869700</v>
+        <v>-74.869699999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>32668.248798</v>
+        <v>32668.248798000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.074514</v>
+        <v>9.0745140000000006</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.118000</v>
+        <v>976.11800000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.459500</v>
+        <v>-79.459500000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>32679.474716</v>
+        <v>32679.474716000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.077632</v>
+        <v>9.0776319999999995</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.196000</v>
+        <v>984.19600000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.878900</v>
+        <v>-90.878900000000002</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>32690.393187</v>
+        <v>32690.393187000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.080665</v>
+        <v>9.0806649999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>993.963000</v>
+        <v>993.96299999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.432000</v>
+        <v>-108.432</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>32701.085751</v>
+        <v>32701.085750999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.083635</v>
+        <v>9.0836349999999992</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.017000</v>
+        <v>-124.017</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>32711.690398</v>
+        <v>32711.690397999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.086581</v>
+        <v>9.0865810000000007</v>
       </c>
       <c r="BF20" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.934000</v>
+        <v>-195.934</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>32722.681716</v>
+        <v>32722.681715999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.089634</v>
+        <v>9.0896340000000002</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.200000</v>
+        <v>1106.2</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.116000</v>
+        <v>-313.11599999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>32733.480645</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.092634</v>
+        <v>9.0926340000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-498.229000</v>
+        <v>-498.22899999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>32744.216024</v>
+        <v>32744.216024000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.095616</v>
+        <v>9.0956159999999997</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.000000</v>
+        <v>1335</v>
       </c>
       <c r="BV20" s="1">
-        <v>-701.505000</v>
+        <v>-701.505</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>32755.039752</v>
+        <v>32755.039752000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.098622</v>
+        <v>9.0986220000000007</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1470.840000</v>
+        <v>1470.84</v>
       </c>
       <c r="CA20" s="1">
-        <v>-918.910000</v>
+        <v>-918.91</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>32767.814679</v>
+        <v>32767.814678999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.102171</v>
+        <v>9.1021710000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.520000</v>
+        <v>1829.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1436.390000</v>
+        <v>-1436.39</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>32594.825484</v>
+        <v>32594.825484000001</v>
       </c>
       <c r="B21" s="1">
-        <v>9.054118</v>
+        <v>9.0541180000000008</v>
       </c>
       <c r="C21" s="1">
-        <v>896.737000</v>
+        <v>896.73699999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-188.985000</v>
+        <v>-188.98500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>32605.314382</v>
       </c>
       <c r="G21" s="1">
-        <v>9.057032</v>
+        <v>9.0570319999999995</v>
       </c>
       <c r="H21" s="1">
-        <v>914.267000</v>
+        <v>914.26700000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-162.760000</v>
+        <v>-162.76</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>32615.691216</v>
+        <v>32615.691215999999</v>
       </c>
       <c r="L21" s="1">
-        <v>9.059914</v>
+        <v>9.0599139999999991</v>
       </c>
       <c r="M21" s="1">
-        <v>939.983000</v>
+        <v>939.98299999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.586000</v>
+        <v>-118.586</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>32626.219804</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.062839</v>
+        <v>9.0628390000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>948.033000</v>
+        <v>948.03300000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.103000</v>
+        <v>-103.10299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>32636.683365</v>
+        <v>32636.683365000001</v>
       </c>
       <c r="V21" s="1">
-        <v>9.065745</v>
+        <v>9.0657449999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>955.665000</v>
+        <v>955.66499999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.621600</v>
+        <v>-88.621600000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>32647.227847</v>
+        <v>32647.227846999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.068674</v>
+        <v>9.0686739999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.718000</v>
+        <v>963.71799999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.159000</v>
+        <v>-77.159000000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>32658.397752</v>
+        <v>32658.397752000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.071777</v>
+        <v>9.0717770000000009</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.744000</v>
+        <v>968.74400000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.873800</v>
+        <v>-74.873800000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>32668.945146</v>
+        <v>32668.945145999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.074707</v>
+        <v>9.0747070000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.114000</v>
+        <v>976.11400000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.459100</v>
+        <v>-79.459100000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>32679.840764</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.077734</v>
+        <v>9.0777339999999995</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.190000</v>
+        <v>984.19</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.857600</v>
+        <v>-90.857600000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>32690.784493</v>
+        <v>32690.784492999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.080773</v>
+        <v>9.0807730000000006</v>
       </c>
       <c r="AV21" s="1">
-        <v>993.950000</v>
+        <v>993.95</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.445000</v>
+        <v>-108.44499999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>32701.444015</v>
+        <v>32701.444015000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.083734</v>
+        <v>9.0837339999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.120000</v>
+        <v>1002.12</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.004000</v>
+        <v>-124.004</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>32712.357985</v>
+        <v>32712.357984999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.086766</v>
+        <v>9.0867660000000008</v>
       </c>
       <c r="BF21" s="1">
-        <v>1040.230000</v>
+        <v>1040.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.926000</v>
+        <v>-195.92599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>32723.429719</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.089842</v>
+        <v>9.0898420000000009</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>32733.608598</v>
+        <v>32733.608597999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.092669</v>
+        <v>9.0926690000000008</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-498.226000</v>
+        <v>-498.226</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>32744.653495</v>
+        <v>32744.653494999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.095737</v>
+        <v>9.0957369999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.030000</v>
+        <v>1335.03</v>
       </c>
       <c r="BV21" s="1">
-        <v>-701.497000</v>
+        <v>-701.49699999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>32755.484632</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.098746</v>
+        <v>9.0987460000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.820000</v>
+        <v>1470.82</v>
       </c>
       <c r="CA21" s="1">
-        <v>-918.961000</v>
+        <v>-918.96100000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>32768.332535</v>
+        <v>32768.332535000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.102315</v>
+        <v>9.1023150000000008</v>
       </c>
       <c r="CE21" s="1">
-        <v>1828.660000</v>
+        <v>1828.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1435.140000</v>
+        <v>-1435.14</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>32595.106745</v>
+        <v>32595.106745000001</v>
       </c>
       <c r="B22" s="1">
-        <v>9.054196</v>
+        <v>9.0541959999999992</v>
       </c>
       <c r="C22" s="1">
-        <v>896.673000</v>
+        <v>896.673</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.107000</v>
+        <v>-189.107</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>32605.594126</v>
       </c>
       <c r="G22" s="1">
-        <v>9.057109</v>
+        <v>9.0571090000000005</v>
       </c>
       <c r="H22" s="1">
-        <v>914.346000</v>
+        <v>914.346</v>
       </c>
       <c r="I22" s="1">
-        <v>-162.354000</v>
+        <v>-162.35400000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>32616.035906</v>
+        <v>32616.035906000001</v>
       </c>
       <c r="L22" s="1">
-        <v>9.060010</v>
+        <v>9.0600100000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.179000</v>
+        <v>940.17899999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.419000</v>
+        <v>-118.419</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>32626.566962</v>
+        <v>32626.566962000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.062935</v>
+        <v>9.0629349999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>948.027000</v>
+        <v>948.02700000000004</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.165000</v>
+        <v>-103.16500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>32637.024117</v>
+        <v>32637.024117000001</v>
       </c>
       <c r="V22" s="1">
-        <v>9.065840</v>
+        <v>9.0658399999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>955.773000</v>
+        <v>955.77300000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.653100</v>
+        <v>-88.653099999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>32647.926679</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.068869</v>
+        <v>9.0688689999999994</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.773000</v>
+        <v>963.77300000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.157700</v>
+        <v>-77.157700000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>32658.743433</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.071873</v>
+        <v>9.0718730000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.777000</v>
+        <v>968.77700000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.880200</v>
+        <v>-74.880200000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>32669.294330</v>
+        <v>32669.294330000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.074804</v>
+        <v>9.0748040000000003</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.132000</v>
+        <v>976.13199999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.416900</v>
+        <v>-79.416899999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>32680.196395</v>
+        <v>32680.196394999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.077832</v>
+        <v>9.0778320000000008</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.196000</v>
+        <v>984.19600000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.878800</v>
+        <v>-90.878799999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>32691.456112</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.080960</v>
+        <v>9.0809599999999993</v>
       </c>
       <c r="AV22" s="1">
-        <v>993.946000</v>
+        <v>993.94600000000003</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.430000</v>
+        <v>-108.43</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>32702.115599</v>
+        <v>32702.115599000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.083921</v>
+        <v>9.0839210000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.980000</v>
+        <v>-123.98</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>32712.804882</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.086890</v>
+        <v>9.0868900000000004</v>
       </c>
       <c r="BF22" s="1">
-        <v>1040.240000</v>
+        <v>1040.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.932000</v>
+        <v>-195.93199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>32723.806146</v>
+        <v>32723.806145999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.089946</v>
+        <v>9.0899459999999994</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.060000</v>
+        <v>-313.06</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>32734.018772</v>
+        <v>32734.018771999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.092783</v>
+        <v>9.0927830000000007</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-498.240000</v>
+        <v>-498.24</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>32745.081046</v>
+        <v>32745.081045999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.095856</v>
+        <v>9.0958559999999995</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-701.555000</v>
+        <v>-701.55499999999995</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>32755.919624</v>
+        <v>32755.919623999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.098867</v>
+        <v>9.0988670000000003</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.690000</v>
+        <v>1470.69</v>
       </c>
       <c r="CA22" s="1">
-        <v>-919.069000</v>
+        <v>-919.06899999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>32768.851319</v>
+        <v>32768.851319000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.102459</v>
+        <v>9.1024589999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1827.500000</v>
+        <v>1827.5</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1435.940000</v>
+        <v>-1435.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>32595.446971</v>
+        <v>32595.446971000001</v>
       </c>
       <c r="B23" s="1">
-        <v>9.054291</v>
+        <v>9.0542909999999992</v>
       </c>
       <c r="C23" s="1">
-        <v>896.624000</v>
+        <v>896.62400000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.108000</v>
+        <v>-189.108</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>32605.937894</v>
+        <v>32605.937893999999</v>
       </c>
       <c r="G23" s="1">
-        <v>9.057205</v>
+        <v>9.0572049999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>914.922000</v>
+        <v>914.92200000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-162.406000</v>
+        <v>-162.40600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>32616.381121</v>
+        <v>32616.381120999999</v>
       </c>
       <c r="L23" s="1">
-        <v>9.060106</v>
+        <v>9.0601059999999993</v>
       </c>
       <c r="M23" s="1">
-        <v>940.431000</v>
+        <v>940.43100000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.616000</v>
+        <v>-118.616</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>32627.263841</v>
@@ -5923,981 +6339,982 @@
         <v>9.063129</v>
       </c>
       <c r="R23" s="1">
-        <v>948.027000</v>
+        <v>948.02700000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.153000</v>
+        <v>-103.15300000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>32637.714051</v>
+        <v>32637.714050999999</v>
       </c>
       <c r="V23" s="1">
-        <v>9.066032</v>
+        <v>9.0660319999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.722000</v>
+        <v>955.72199999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.639500</v>
+        <v>-88.639499999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>32648.272425</v>
+        <v>32648.272424999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.068965</v>
+        <v>9.0689650000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.685000</v>
+        <v>963.68499999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.001600</v>
+        <v>-77.001599999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>32659.085672</v>
+        <v>32659.085672000001</v>
       </c>
       <c r="AF23" s="1">
         <v>9.071968</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.731000</v>
+        <v>968.73099999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.888100</v>
+        <v>-74.888099999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>32669.642057</v>
+        <v>32669.642057000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.074901</v>
+        <v>9.0749010000000006</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.122000</v>
+        <v>976.12199999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.456700</v>
+        <v>-79.456699999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>32680.866523</v>
+        <v>32680.866523000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.078018</v>
+        <v>9.0780180000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.183000</v>
+        <v>984.18299999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.883300</v>
+        <v>-90.883300000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>32691.879661</v>
+        <v>32691.879660999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.081078</v>
+        <v>9.0810779999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>993.955000</v>
+        <v>993.95500000000004</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.416000</v>
+        <v>-108.416</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>32702.523839</v>
+        <v>32702.523839000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.084034</v>
+        <v>9.0840340000000008</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.070000</v>
+        <v>1002.07</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.002000</v>
+        <v>-124.002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>32713.164976</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.086990</v>
+        <v>9.0869900000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1040.240000</v>
+        <v>1040.24</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.912000</v>
+        <v>-195.91200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>32724.184625</v>
+        <v>32724.184625000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.090051</v>
+        <v>9.0900510000000008</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.240000</v>
+        <v>1106.24</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.094000</v>
+        <v>-313.09399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>32734.414083</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.092893</v>
+        <v>9.0928930000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-498.244000</v>
+        <v>-498.24400000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>32745.492725</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.095970</v>
+        <v>9.0959699999999994</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.180000</v>
+        <v>1335.18</v>
       </c>
       <c r="BV23" s="1">
-        <v>-701.599000</v>
+        <v>-701.59900000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>32756.356102</v>
+        <v>32756.356102000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.098988</v>
+        <v>9.0989880000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="CA23" s="1">
-        <v>-919.040000</v>
+        <v>-919.04</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>32769.365671</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.102602</v>
+        <v>9.1026019999999992</v>
       </c>
       <c r="CE23" s="1">
-        <v>1828.590000</v>
+        <v>1828.59</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1436.830000</v>
+        <v>-1436.83</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>32595.788750</v>
+        <v>32595.78875</v>
       </c>
       <c r="B24" s="1">
-        <v>9.054386</v>
+        <v>9.0543859999999992</v>
       </c>
       <c r="C24" s="1">
-        <v>896.668000</v>
+        <v>896.66800000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.045000</v>
+        <v>-189.04499999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>32606.546978</v>
+        <v>32606.546977999998</v>
       </c>
       <c r="G24" s="1">
-        <v>9.057374</v>
+        <v>9.0573739999999994</v>
       </c>
       <c r="H24" s="1">
-        <v>914.733000</v>
+        <v>914.73299999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-162.949000</v>
+        <v>-162.94900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>32617.060143</v>
+        <v>32617.060142999999</v>
       </c>
       <c r="L24" s="1">
-        <v>9.060294</v>
+        <v>9.0602940000000007</v>
       </c>
       <c r="M24" s="1">
-        <v>940.038000</v>
+        <v>940.03800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.460000</v>
+        <v>-118.46</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>32627.612065</v>
+        <v>32627.612065000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.063226</v>
+        <v>9.0632260000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>948.047000</v>
+        <v>948.04700000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.095000</v>
+        <v>-103.095</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>32638.057964</v>
       </c>
       <c r="V24" s="1">
-        <v>9.066127</v>
+        <v>9.0661269999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>955.657000</v>
+        <v>955.65700000000004</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.633900</v>
+        <v>-88.633899999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>32648.623697</v>
+        <v>32648.623696999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.069062</v>
+        <v>9.0690620000000006</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.730000</v>
+        <v>963.73</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.113100</v>
+        <v>-77.113100000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>32659.735928</v>
+        <v>32659.735927999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.072149</v>
+        <v>9.0721489999999996</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.714000</v>
+        <v>968.71400000000006</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.910900</v>
+        <v>-74.910899999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>32670.303192</v>
+        <v>32670.303191999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.075084</v>
+        <v>9.0750840000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.117000</v>
+        <v>976.11699999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.456200</v>
+        <v>-79.456199999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>32681.309946</v>
+        <v>32681.309946000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.078142</v>
+        <v>9.0781419999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.199000</v>
+        <v>984.19899999999996</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.880000</v>
+        <v>-90.88</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>32692.273484</v>
+        <v>32692.273484000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.081187</v>
+        <v>9.0811869999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>993.942000</v>
+        <v>993.94200000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.440000</v>
+        <v>-108.44</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>32702.909197</v>
+        <v>32702.909197000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.084141</v>
+        <v>9.0841410000000007</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.080000</v>
+        <v>1002.08</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.000000</v>
+        <v>-124</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>32713.523088</v>
+        <v>32713.523088000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.087090</v>
+        <v>9.0870899999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.921000</v>
+        <v>-195.92099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>32724.617638</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.090172</v>
+        <v>9.0901720000000008</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.210000</v>
+        <v>1106.21</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>32734.840643</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.093011</v>
+        <v>9.0930110000000006</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.680000</v>
+        <v>1213.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-498.206000</v>
+        <v>-498.20600000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>32745.921764</v>
+        <v>32745.921763999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.096089</v>
+        <v>9.0960889999999992</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.200000</v>
+        <v>1335.2</v>
       </c>
       <c r="BV24" s="1">
-        <v>-701.677000</v>
+        <v>-701.67700000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>32756.761831</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.099101</v>
+        <v>9.0991009999999992</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1470.780000</v>
+        <v>1470.78</v>
       </c>
       <c r="CA24" s="1">
-        <v>-919.152000</v>
+        <v>-919.15200000000004</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>32769.886501</v>
+        <v>32769.886501000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.102746</v>
+        <v>9.1027459999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.070000</v>
+        <v>1828.07</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1435.140000</v>
+        <v>-1435.14</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>32596.470218</v>
+        <v>32596.470217999999</v>
       </c>
       <c r="B25" s="1">
-        <v>9.054575</v>
+        <v>9.0545749999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>896.602000</v>
+        <v>896.60199999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-188.995000</v>
+        <v>-188.995</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>32606.971517</v>
+        <v>32606.971517000002</v>
       </c>
       <c r="G25" s="1">
-        <v>9.057492</v>
+        <v>9.0574919999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>914.195000</v>
+        <v>914.19500000000005</v>
       </c>
       <c r="I25" s="1">
-        <v>-162.542000</v>
+        <v>-162.542</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>32617.418286</v>
       </c>
       <c r="L25" s="1">
-        <v>9.060394</v>
+        <v>9.0603940000000005</v>
       </c>
       <c r="M25" s="1">
-        <v>939.944000</v>
+        <v>939.94399999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.341000</v>
+        <v>-118.34099999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>32627.961253</v>
+        <v>32627.961253000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.063323</v>
+        <v>9.0633230000000005</v>
       </c>
       <c r="R25" s="1">
-        <v>948.069000</v>
+        <v>948.06899999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>32638.406467</v>
+        <v>32638.406467000001</v>
       </c>
       <c r="V25" s="1">
-        <v>9.066224</v>
+        <v>9.0662240000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>955.721000</v>
+        <v>955.721</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.670200</v>
+        <v>-88.670199999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>32649.272820</v>
+        <v>32649.272819999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.069242</v>
+        <v>9.0692419999999991</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.761000</v>
+        <v>963.76099999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.141600</v>
+        <v>-77.141599999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>32660.115893</v>
+        <v>32660.115892999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.072254</v>
+        <v>9.0722539999999992</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.757000</v>
+        <v>968.75699999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.918100</v>
+        <v>-74.918099999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>32670.688089</v>
+        <v>32670.688088999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.075191</v>
+        <v>9.0751910000000002</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.124000</v>
+        <v>976.12400000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.467200</v>
+        <v>-79.467200000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>32681.670011</v>
+        <v>32681.670010999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.078242</v>
+        <v>9.0782419999999995</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.210000</v>
+        <v>984.21</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.872900</v>
+        <v>-90.872900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>32692.640027</v>
+        <v>32692.640027000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.081289</v>
+        <v>9.0812889999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>993.960000</v>
+        <v>993.96</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.404000</v>
+        <v>-108.404</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>32703.267831</v>
+        <v>32703.267831000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.084241</v>
+        <v>9.0842410000000005</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.090000</v>
+        <v>1002.09</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.011000</v>
+        <v>-124.011</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>32713.953120</v>
+        <v>32713.953119999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.087209</v>
+        <v>9.0872089999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1040.220000</v>
+        <v>1040.22</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.916000</v>
+        <v>-195.916</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>32724.940032</v>
+        <v>32724.940031999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.090261</v>
+        <v>9.0902609999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.190000</v>
+        <v>1106.19</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.098000</v>
+        <v>-313.09800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>32735.235458</v>
+        <v>32735.235457999999</v>
       </c>
       <c r="BO25" s="1">
         <v>9.093121</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-498.240000</v>
+        <v>-498.24</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>32746.351332</v>
+        <v>32746.351331999998</v>
       </c>
       <c r="BT25" s="1">
         <v>9.096209</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.240000</v>
+        <v>1335.24</v>
       </c>
       <c r="BV25" s="1">
-        <v>-701.652000</v>
+        <v>-701.65200000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>32757.216661</v>
+        <v>32757.216660999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.099227</v>
+        <v>9.0992270000000008</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="CA25" s="1">
-        <v>-919.060000</v>
+        <v>-919.06</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>32770.424628</v>
+        <v>32770.424628000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.102896</v>
+        <v>9.1028959999999994</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.190000</v>
+        <v>1828.19</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1437.010000</v>
+        <v>-1437.01</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>32596.814476</v>
       </c>
       <c r="B26" s="1">
-        <v>9.054671</v>
+        <v>9.0546710000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>896.505000</v>
+        <v>896.505</v>
       </c>
       <c r="D26" s="1">
-        <v>-188.944000</v>
+        <v>-188.94399999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>32607.318717</v>
+        <v>32607.318716999998</v>
       </c>
       <c r="G26" s="1">
-        <v>9.057589</v>
+        <v>9.0575890000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>914.669000</v>
+        <v>914.66899999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-162.739000</v>
+        <v>-162.739</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>32617.764462</v>
+        <v>32617.764461999999</v>
       </c>
       <c r="L26" s="1">
-        <v>9.060490</v>
+        <v>9.0604899999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>940.316000</v>
+        <v>940.31600000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.384000</v>
+        <v>-118.384</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>32628.616433</v>
+        <v>32628.616432999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.063505</v>
+        <v>9.0635049999999993</v>
       </c>
       <c r="R26" s="1">
-        <v>948.081000</v>
+        <v>948.08100000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.147000</v>
+        <v>-103.14700000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>32639.061223</v>
+        <v>32639.061223000001</v>
       </c>
       <c r="V26" s="1">
-        <v>9.066406</v>
+        <v>9.0664060000000006</v>
       </c>
       <c r="W26" s="1">
-        <v>955.684000</v>
+        <v>955.68399999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.641300</v>
+        <v>-88.641300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>32649.669636</v>
+        <v>32649.669635999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.069353</v>
+        <v>9.0693529999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.715000</v>
+        <v>963.71500000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.152400</v>
+        <v>-77.1524</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>32660.461077</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.072350</v>
+        <v>9.0723500000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.791000</v>
+        <v>968.79100000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.892400</v>
+        <v>-74.892399999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>32671.035287</v>
+        <v>32671.035286999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.075288</v>
+        <v>9.0752880000000005</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.129000</v>
+        <v>976.12900000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.456300</v>
+        <v>-79.456299999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>32682.031625</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.078342</v>
+        <v>9.0783419999999992</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.181000</v>
+        <v>984.18100000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.875100</v>
+        <v>-90.875100000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>32693.053690</v>
+        <v>32693.053690000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.081404</v>
+        <v>9.0814039999999991</v>
       </c>
       <c r="AV26" s="1">
-        <v>993.940000</v>
+        <v>993.94</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.454000</v>
+        <v>-108.45399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>32703.702054</v>
+        <v>32703.702054000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.084362</v>
+        <v>9.0843620000000005</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.110000</v>
+        <v>1002.11</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.003000</v>
+        <v>-124.003</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>32714.250222</v>
+        <v>32714.250221999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.087292</v>
+        <v>9.0872919999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1040.240000</v>
+        <v>1040.24</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.940000</v>
+        <v>-195.94</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>32725.329857</v>
+        <v>32725.329857000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.090369</v>
+        <v>9.0903690000000008</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.160000</v>
+        <v>1106.1600000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.102000</v>
+        <v>-313.10199999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>32735.649409</v>
+        <v>32735.649409000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.093236</v>
+        <v>9.0932359999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.730000</v>
+        <v>1213.73</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-498.203000</v>
+        <v>-498.20299999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>32746.762980</v>
+        <v>32746.76298</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.096323</v>
+        <v>9.0963229999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.200000</v>
+        <v>1335.2</v>
       </c>
       <c r="BV26" s="1">
-        <v>-701.740000</v>
+        <v>-701.74</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>32757.796522</v>
+        <v>32757.796522000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.099388</v>
+        <v>9.0993879999999994</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1470.890000</v>
+        <v>1470.89</v>
       </c>
       <c r="CA26" s="1">
-        <v>-918.947000</v>
+        <v>-918.947</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>32770.961795</v>
+        <v>32770.961795000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.103045</v>
+        <v>9.1030449999999998</v>
       </c>
       <c r="CE26" s="1">
-        <v>1829.160000</v>
+        <v>1829.16</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1435.560000</v>
+        <v>-1435.56</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>